--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_errors_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_errors_latest_since_2022.xlsx
@@ -656,7 +656,7 @@
         <v>-0.7415555054039247</v>
       </c>
       <c r="K6">
-        <v>-0.1586149481231739</v>
+        <v>-0.2254024683979639</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,7 +688,10 @@
         <v>-0.6414761455013032</v>
       </c>
       <c r="J7">
-        <v>-0.05853558822055238</v>
+        <v>-0.1253231084953424</v>
+      </c>
+      <c r="K7">
+        <v>-0.3352267436446591</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -717,7 +720,10 @@
         <v>-0.287689639421607</v>
       </c>
       <c r="I8">
-        <v>0.2952509178591439</v>
+        <v>0.2284633975843539</v>
+      </c>
+      <c r="J8">
+        <v>0.01855976243503714</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -743,7 +749,10 @@
         <v>-0.4358670298540523</v>
       </c>
       <c r="H9">
-        <v>0.1470735274266985</v>
+        <v>0.08028600715190851</v>
+      </c>
+      <c r="I9">
+        <v>-0.1296176279974082</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,7 +775,10 @@
         <v>-0.5933130188582073</v>
       </c>
       <c r="G10">
-        <v>-0.01037246157745647</v>
+        <v>-0.07715998185224648</v>
+      </c>
+      <c r="H10">
+        <v>-0.2870636170015632</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,7 +798,10 @@
         <v>-0.09265356233213651</v>
       </c>
       <c r="F11">
-        <v>0.4902869949486143</v>
+        <v>0.4234994746738243</v>
+      </c>
+      <c r="G11">
+        <v>0.2135958395245076</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -803,7 +818,10 @@
         <v>-0.3730114428676057</v>
       </c>
       <c r="E12">
-        <v>0.2099291144131452</v>
+        <v>0.1431415941383551</v>
+      </c>
+      <c r="F12">
+        <v>-0.06676204101096155</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -817,7 +835,10 @@
         <v>-0.201036585022594</v>
       </c>
       <c r="D13">
-        <v>0.3819039722581568</v>
+        <v>0.3151164519833668</v>
+      </c>
+      <c r="E13">
+        <v>0.1052128168340501</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -828,7 +849,10 @@
         <v>-0.5068991247689255</v>
       </c>
       <c r="C14">
-        <v>0.07604143251182532</v>
+        <v>0.009253912237035311</v>
+      </c>
+      <c r="D14">
+        <v>-0.2006497229122814</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.6883713851991116</v>
+        <v>0.6215838649243215</v>
+      </c>
+      <c r="C15">
+        <v>0.4116802297750048</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_errors_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_errors_latest_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-1.025188112727922</v>
+        <v>-0.4989491018657047</v>
       </c>
       <c r="C2">
-        <v>-0.4989491018657047</v>
+        <v>-0.6407780486049788</v>
       </c>
       <c r="D2">
-        <v>-0.6407780486049788</v>
+        <v>0.002196572797085183</v>
       </c>
       <c r="E2">
-        <v>0.002196572797085183</v>
+        <v>0.1266092791266676</v>
       </c>
       <c r="F2">
-        <v>0.1266092791266676</v>
+        <v>-0.2710209269109496</v>
       </c>
       <c r="G2">
-        <v>-0.2710209269109496</v>
+        <v>-0.3471896406117954</v>
       </c>
       <c r="H2">
-        <v>-0.3471896406117954</v>
+        <v>-0.07086758248887381</v>
       </c>
       <c r="I2">
-        <v>-0.07086758248887381</v>
+        <v>-0.2420874048005978</v>
       </c>
       <c r="J2">
-        <v>-0.2420874048005978</v>
+        <v>-0.08893999929185659</v>
       </c>
       <c r="K2">
-        <v>-0.08893999929185659</v>
+        <v>-0.3663687737149753</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.08364543516793629</v>
+        <v>-0.05818351157133772</v>
       </c>
       <c r="C3">
-        <v>-0.05818351157133772</v>
+        <v>0.5847911098307261</v>
       </c>
       <c r="D3">
-        <v>0.5847911098307261</v>
+        <v>0.7092038161603086</v>
       </c>
       <c r="E3">
-        <v>0.7092038161603086</v>
+        <v>0.3115736101226914</v>
       </c>
       <c r="F3">
-        <v>0.3115736101226914</v>
+        <v>0.2354048964218456</v>
       </c>
       <c r="G3">
-        <v>0.2354048964218456</v>
+        <v>0.5117269545447671</v>
       </c>
       <c r="H3">
-        <v>0.5117269545447671</v>
+        <v>0.3405071322330432</v>
       </c>
       <c r="I3">
-        <v>0.3405071322330432</v>
+        <v>0.4936545377417844</v>
       </c>
       <c r="J3">
-        <v>0.4936545377417844</v>
+        <v>0.2162257633186657</v>
       </c>
       <c r="K3">
-        <v>0.2162257633186657</v>
+        <v>0.05323806995971928</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1538585523806955</v>
+        <v>0.4891160690213684</v>
       </c>
       <c r="C4">
-        <v>0.4891160690213684</v>
+        <v>0.6135287753509509</v>
       </c>
       <c r="D4">
-        <v>0.6135287753509509</v>
+        <v>0.2158985693133336</v>
       </c>
       <c r="E4">
-        <v>0.2158985693133336</v>
+        <v>0.1397298556124878</v>
       </c>
       <c r="F4">
-        <v>0.1397298556124878</v>
+        <v>0.4160519137354094</v>
       </c>
       <c r="G4">
-        <v>0.4160519137354094</v>
+        <v>0.2448320914236854</v>
       </c>
       <c r="H4">
-        <v>0.2448320914236854</v>
+        <v>0.3979794969324266</v>
       </c>
       <c r="I4">
-        <v>0.3979794969324266</v>
+        <v>0.1205507225093079</v>
       </c>
       <c r="J4">
-        <v>0.1205507225093079</v>
+        <v>-0.04243697084963852</v>
       </c>
       <c r="K4">
-        <v>-0.04243697084963852</v>
+        <v>-0.1665195462441563</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.7495351060200912</v>
+        <v>0.8739478123496736</v>
       </c>
       <c r="C5">
-        <v>0.8739478123496736</v>
+        <v>0.4763176063120564</v>
       </c>
       <c r="D5">
-        <v>0.4763176063120564</v>
+        <v>0.4001488926112106</v>
       </c>
       <c r="E5">
-        <v>0.4001488926112106</v>
+        <v>0.6764709507341322</v>
       </c>
       <c r="F5">
-        <v>0.6764709507341322</v>
+        <v>0.5052511284224082</v>
       </c>
       <c r="G5">
-        <v>0.5052511284224082</v>
+        <v>0.6583985339311494</v>
       </c>
       <c r="H5">
-        <v>0.6583985339311494</v>
+        <v>0.3809697595080307</v>
       </c>
       <c r="I5">
-        <v>0.3809697595080307</v>
+        <v>0.2179820661490843</v>
       </c>
       <c r="J5">
-        <v>0.2179820661490843</v>
+        <v>0.09389949075456649</v>
       </c>
       <c r="K5">
-        <v>0.09389949075456649</v>
+        <v>0.6100525277605273</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.03849281619118239</v>
+        <v>-0.3591373898464348</v>
       </c>
       <c r="C6">
-        <v>-0.3591373898464348</v>
+        <v>-0.4353061035472806</v>
       </c>
       <c r="D6">
+        <v>-0.158984045424359</v>
+      </c>
+      <c r="E6">
+        <v>-0.330203867736083</v>
+      </c>
+      <c r="F6">
+        <v>-0.1770564622273418</v>
+      </c>
+      <c r="G6">
+        <v>-0.4544852366504605</v>
+      </c>
+      <c r="H6">
+        <v>-0.617472930009407</v>
+      </c>
+      <c r="I6">
+        <v>-0.7415555054039247</v>
+      </c>
+      <c r="J6">
+        <v>-0.2254024683979639</v>
+      </c>
+      <c r="K6">
         <v>-0.4353061035472806</v>
-      </c>
-      <c r="E6">
-        <v>-0.158984045424359</v>
-      </c>
-      <c r="F6">
-        <v>-0.330203867736083</v>
-      </c>
-      <c r="G6">
-        <v>-0.1770564622273418</v>
-      </c>
-      <c r="H6">
-        <v>-0.4544852366504605</v>
-      </c>
-      <c r="I6">
-        <v>-0.617472930009407</v>
-      </c>
-      <c r="J6">
-        <v>-0.7415555054039247</v>
-      </c>
-      <c r="K6">
-        <v>-0.2254024683979639</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,33 +664,30 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.2590580299438133</v>
+        <v>-0.3352267436446591</v>
       </c>
       <c r="C7">
-        <v>-0.3352267436446591</v>
+        <v>-0.0589046855217375</v>
       </c>
       <c r="D7">
-        <v>-0.0589046855217375</v>
+        <v>-0.2301245078334615</v>
       </c>
       <c r="E7">
-        <v>-0.2301245078334615</v>
+        <v>-0.07697710232472027</v>
       </c>
       <c r="F7">
-        <v>-0.07697710232472027</v>
+        <v>-0.354405876747839</v>
       </c>
       <c r="G7">
-        <v>-0.354405876747839</v>
+        <v>-0.5173935701067854</v>
       </c>
       <c r="H7">
-        <v>-0.5173935701067854</v>
+        <v>-0.6414761455013032</v>
       </c>
       <c r="I7">
-        <v>-0.6414761455013032</v>
+        <v>-0.1253231084953424</v>
       </c>
       <c r="J7">
-        <v>-0.1253231084953424</v>
-      </c>
-      <c r="K7">
         <v>-0.3352267436446591</v>
       </c>
     </row>
@@ -699,30 +696,27 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01855976243503714</v>
+        <v>0.2948818205579588</v>
       </c>
       <c r="C8">
-        <v>0.2948818205579588</v>
+        <v>0.1236619982462347</v>
       </c>
       <c r="D8">
-        <v>0.1236619982462347</v>
+        <v>0.276809403754976</v>
       </c>
       <c r="E8">
-        <v>0.276809403754976</v>
+        <v>-0.0006193706681427817</v>
       </c>
       <c r="F8">
-        <v>-0.0006193706681427817</v>
+        <v>-0.1636070640270892</v>
       </c>
       <c r="G8">
-        <v>-0.1636070640270892</v>
+        <v>-0.287689639421607</v>
       </c>
       <c r="H8">
-        <v>-0.287689639421607</v>
+        <v>0.2284633975843539</v>
       </c>
       <c r="I8">
-        <v>0.2284633975843539</v>
-      </c>
-      <c r="J8">
         <v>0.01855976243503714</v>
       </c>
     </row>
@@ -731,27 +725,24 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1467044301255134</v>
+        <v>-0.0245153921862106</v>
       </c>
       <c r="C9">
-        <v>-0.0245153921862106</v>
+        <v>0.1286320133225306</v>
       </c>
       <c r="D9">
-        <v>0.1286320133225306</v>
+        <v>-0.1487967611005881</v>
       </c>
       <c r="E9">
-        <v>-0.1487967611005881</v>
+        <v>-0.3117844544595345</v>
       </c>
       <c r="F9">
-        <v>-0.3117844544595345</v>
+        <v>-0.4358670298540523</v>
       </c>
       <c r="G9">
-        <v>-0.4358670298540523</v>
+        <v>0.08028600715190851</v>
       </c>
       <c r="H9">
-        <v>0.08028600715190851</v>
-      </c>
-      <c r="I9">
         <v>-0.1296176279974082</v>
       </c>
     </row>
@@ -760,24 +751,21 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.1819613811903656</v>
+        <v>-0.02881397568162436</v>
       </c>
       <c r="C10">
-        <v>-0.02881397568162436</v>
+        <v>-0.3062427501047431</v>
       </c>
       <c r="D10">
-        <v>-0.3062427501047431</v>
+        <v>-0.4692304434636895</v>
       </c>
       <c r="E10">
-        <v>-0.4692304434636895</v>
+        <v>-0.5933130188582073</v>
       </c>
       <c r="F10">
-        <v>-0.5933130188582073</v>
+        <v>-0.07715998185224648</v>
       </c>
       <c r="G10">
-        <v>-0.07715998185224648</v>
-      </c>
-      <c r="H10">
         <v>-0.2870636170015632</v>
       </c>
     </row>
@@ -786,21 +774,18 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.4718454808444464</v>
+        <v>0.1944167064213277</v>
       </c>
       <c r="C11">
-        <v>0.1944167064213277</v>
+        <v>0.0314290130623813</v>
       </c>
       <c r="D11">
-        <v>0.0314290130623813</v>
+        <v>-0.09265356233213651</v>
       </c>
       <c r="E11">
-        <v>-0.09265356233213651</v>
+        <v>0.4234994746738243</v>
       </c>
       <c r="F11">
-        <v>0.4234994746738243</v>
-      </c>
-      <c r="G11">
         <v>0.2135958395245076</v>
       </c>
     </row>
@@ -809,18 +794,15 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.08594117411414147</v>
+        <v>-0.2489288674730878</v>
       </c>
       <c r="C12">
-        <v>-0.2489288674730878</v>
+        <v>-0.3730114428676057</v>
       </c>
       <c r="D12">
-        <v>-0.3730114428676057</v>
+        <v>0.1431415941383551</v>
       </c>
       <c r="E12">
-        <v>0.1431415941383551</v>
-      </c>
-      <c r="F12">
         <v>-0.06676204101096155</v>
       </c>
     </row>
@@ -829,15 +811,12 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.07695400962807622</v>
+        <v>-0.201036585022594</v>
       </c>
       <c r="C13">
-        <v>-0.201036585022594</v>
+        <v>0.3151164519833668</v>
       </c>
       <c r="D13">
-        <v>0.3151164519833668</v>
-      </c>
-      <c r="E13">
         <v>0.1052128168340501</v>
       </c>
     </row>
@@ -846,12 +825,9 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.5068991247689255</v>
+        <v>0.009253912237035311</v>
       </c>
       <c r="C14">
-        <v>0.009253912237035311</v>
-      </c>
-      <c r="D14">
         <v>-0.2006497229122814</v>
       </c>
     </row>
@@ -860,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.6215838649243215</v>
-      </c>
-      <c r="C15">
         <v>0.4116802297750048</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_errors_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_errors_latest_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-1.025188112727922</v>
+      </c>
+      <c r="C2">
         <v>-0.4989491018657047</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.6407780486049788</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.002196572797085183</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.1266092791266676</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.2710209269109496</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.3471896406117954</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.07086758248887381</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.2420874048005978</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.08893999929185659</v>
-      </c>
-      <c r="K2">
-        <v>-0.3663687737149753</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0.08364543516793629</v>
+      </c>
+      <c r="C3">
         <v>-0.05818351157133772</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.5847911098307261</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.7092038161603086</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.3115736101226914</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2354048964218456</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.5117269545447671</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.3405071322330432</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.4936545377417844</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2162257633186657</v>
-      </c>
-      <c r="K3">
-        <v>0.05323806995971928</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-0.1538585523806955</v>
+      </c>
+      <c r="C4">
         <v>0.4891160690213684</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.6135287753509509</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.2158985693133336</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.1397298556124878</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.4160519137354094</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.2448320914236854</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.3979794969324266</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1205507225093079</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.04243697084963852</v>
-      </c>
-      <c r="K4">
-        <v>-0.1665195462441563</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.7495351060200912</v>
+      </c>
+      <c r="C5">
         <v>0.8739478123496736</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.4763176063120564</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4001488926112106</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.6764709507341322</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.5052511284224082</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.6583985339311494</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.3809697595080307</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.2179820661490843</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.09389949075456649</v>
-      </c>
-      <c r="K5">
-        <v>0.6100525277605273</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.03849281619118239</v>
+      </c>
+      <c r="C6">
         <v>-0.3591373898464348</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.4353061035472806</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.158984045424359</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.330203867736083</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.1770564622273418</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.4544852366504605</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.617472930009407</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.7415555054039247</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.2254024683979639</v>
-      </c>
-      <c r="K6">
-        <v>-0.4353061035472806</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,30 +664,33 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.2590580299438133</v>
+      </c>
+      <c r="C7">
         <v>-0.3352267436446591</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.0589046855217375</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.2301245078334615</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.07697710232472027</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.354405876747839</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.5173935701067854</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.6414761455013032</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.1253231084953424</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.3352267436446591</v>
       </c>
     </row>
@@ -696,27 +699,30 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.01855976243503714</v>
+      </c>
+      <c r="C8">
         <v>0.2948818205579588</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.1236619982462347</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.276809403754976</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.0006193706681427817</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.1636070640270892</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.287689639421607</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.2284633975843539</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.01855976243503714</v>
       </c>
     </row>
@@ -725,24 +731,27 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.1467044301255134</v>
+      </c>
+      <c r="C9">
         <v>-0.0245153921862106</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.1286320133225306</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.1487967611005881</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.3117844544595345</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.4358670298540523</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.08028600715190851</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.1296176279974082</v>
       </c>
     </row>
@@ -751,21 +760,24 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.1819613811903656</v>
+      </c>
+      <c r="C10">
         <v>-0.02881397568162436</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.3062427501047431</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.4692304434636895</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.5933130188582073</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.07715998185224648</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.2870636170015632</v>
       </c>
     </row>
@@ -774,18 +786,21 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.4718454808444464</v>
+      </c>
+      <c r="C11">
         <v>0.1944167064213277</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.0314290130623813</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.09265356233213651</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.4234994746738243</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.2135958395245076</v>
       </c>
     </row>
@@ -794,15 +809,18 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.08594117411414147</v>
+      </c>
+      <c r="C12">
         <v>-0.2489288674730878</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.3730114428676057</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.1431415941383551</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.06676204101096155</v>
       </c>
     </row>
@@ -811,12 +829,15 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.07695400962807622</v>
+      </c>
+      <c r="C13">
         <v>-0.201036585022594</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3151164519833668</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.1052128168340501</v>
       </c>
     </row>
@@ -825,9 +846,12 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.5068991247689255</v>
+      </c>
+      <c r="C14">
         <v>0.009253912237035311</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.2006497229122814</v>
       </c>
     </row>
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.6215838649243215</v>
+      </c>
+      <c r="C15">
         <v>0.4116802297750048</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>
